--- a/Software Specifications/SRS/SRS_Review.xlsx
+++ b/Software Specifications/SRS/SRS_Review.xlsx
@@ -159,7 +159,7 @@
   </si>
   <si>
     <t xml:space="preserve">Instead of saying this function shall xxxxx , you could say the SW shall do xxxxxxx as all of those requirements in SRS 
-describe how the sw shall handle the system functionalities. </t>
+describe how the sw shall handle the system functionalities.</t>
   </si>
   <si>
     <t xml:space="preserve">You need to change the requirement ID numbers as it should use only integer numbers for each separate requirement.</t>
@@ -209,7 +209,7 @@
     <numFmt numFmtId="168" formatCode="[$-409]M/D/YYYY"/>
     <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -254,12 +254,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -444,7 +438,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -545,18 +539,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -581,7 +567,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -589,7 +575,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -694,7 +680,7 @@
       <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.27"/>
   </cols>
@@ -935,10 +921,10 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.72"/>
@@ -1046,7 +1032,7 @@
       <c r="E4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="24"/>
@@ -1071,7 +1057,7 @@
       <c r="E5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="24"/>
@@ -1096,7 +1082,7 @@
       <c r="E6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="23" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="24"/>
@@ -1121,7 +1107,7 @@
       <c r="E7" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="24"/>
@@ -1146,7 +1132,7 @@
       <c r="E8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="24"/>
@@ -1171,7 +1157,7 @@
       <c r="E9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="24"/>
@@ -1187,7 +1173,7 @@
       <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -1196,7 +1182,7 @@
       <c r="E10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="26" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="24"/>
@@ -1215,7 +1201,7 @@
       <c r="B11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -1239,10 +1225,10 @@
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="20"/>
       <c r="E12" s="22"/>
-      <c r="F12" s="28"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24" t="s">
         <v>28</v>
@@ -1255,7 +1241,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="20"/>
       <c r="E13" s="22"/>
-      <c r="F13" s="26"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -1269,7 +1255,7 @@
       <c r="C14" s="21"/>
       <c r="D14" s="20"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="26"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="22"/>
@@ -1283,7 +1269,7 @@
       <c r="C15" s="21"/>
       <c r="D15" s="20"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="26"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="22"/>
@@ -1294,7 +1280,7 @@
       <c r="C16" s="21"/>
       <c r="D16" s="20"/>
       <c r="E16" s="22"/>
-      <c r="F16" s="26"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="22"/>
@@ -1305,7 +1291,7 @@
       <c r="C17" s="21"/>
       <c r="D17" s="20"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="26"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="22"/>
@@ -1322,7 +1308,7 @@
       <c r="C18" s="21"/>
       <c r="D18" s="20"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="26"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="22"/>
@@ -1339,7 +1325,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="20"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="26"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="22"/>
@@ -1350,7 +1336,7 @@
       <c r="C20" s="21"/>
       <c r="D20" s="20"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="26"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="22"/>
@@ -1361,362 +1347,362 @@
       <c r="C21" s="21"/>
       <c r="D21" s="20"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="26"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="34"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="34"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="31"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="34"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="34"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="34"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
-      <c r="I27" s="34"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="20"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
-      <c r="I28" s="34"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="20"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
-      <c r="I29" s="34"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="20"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="34"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="20"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="34"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
-      <c r="I32" s="34"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="34"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="36"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="34"/>
+      <c r="I34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="36"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="34"/>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="34"/>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="37"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="35"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
-      <c r="I37" s="34"/>
+      <c r="I37" s="32"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="36"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="34"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="34"/>
+      <c r="I38" s="32"/>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="36"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="34"/>
+      <c r="I39" s="32"/>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="34"/>
+      <c r="I40" s="32"/>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="36"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
-      <c r="I41" s="34"/>
+      <c r="I41" s="32"/>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="36"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="34"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
-      <c r="I42" s="34"/>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="36"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
-      <c r="I43" s="34"/>
+      <c r="I43" s="32"/>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="36"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="34"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
-      <c r="I44" s="34"/>
+      <c r="I44" s="32"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="36"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="34"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="34"/>
+      <c r="I45" s="32"/>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="36"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="34"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
-      <c r="I46" s="34"/>
+      <c r="I46" s="32"/>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="36"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="34"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
-      <c r="I47" s="34"/>
+      <c r="I47" s="32"/>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="36"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="34"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
-      <c r="I48" s="34"/>
+      <c r="I48" s="32"/>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="36"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="34"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
-      <c r="I49" s="34"/>
+      <c r="I49" s="32"/>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="36"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="34"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
-      <c r="I50" s="34"/>
+      <c r="I50" s="32"/>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="36"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="34"/>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
-      <c r="I51" s="34"/>
+      <c r="I51" s="32"/>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="36"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="34"/>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
-      <c r="I52" s="34"/>
+      <c r="I52" s="32"/>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="36"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="34"/>
       <c r="G53" s="24"/>
       <c r="H53" s="24"/>
-      <c r="I53" s="34"/>
+      <c r="I53" s="32"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">

--- a/Software Specifications/SRS/SRS_Review.xlsx
+++ b/Software Specifications/SRS/SRS_Review.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Introduction " sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Cross review points " sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Introduction " sheetId="1" r:id="rId1"/>
+    <sheet name="Cross review points " sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_Toc30697436" vbProcedure="false">#REF!</definedName>
+    <definedName name="_Toc30697436" localSheetId="1">#REF!</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,42 +23,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
   <si>
-    <t xml:space="preserve">Electric Blender</t>
+    <t>Electric Blender</t>
   </si>
   <si>
     <t xml:space="preserve">Ref Document </t>
   </si>
   <si>
-    <t xml:space="preserve">PO2EBL_ELECTRIC BLENDER_SRS</t>
+    <t>PO2EBL_ELECTRIC BLENDER_SRS</t>
   </si>
   <si>
     <t xml:space="preserve">Ref Version </t>
   </si>
   <si>
-    <t xml:space="preserve">V1.1</t>
+    <t>V1.1</t>
   </si>
   <si>
     <t xml:space="preserve">Auther </t>
   </si>
   <si>
-    <t xml:space="preserve">Abdelrahman Ali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auther</t>
+    <t>Abdelrahman Ali</t>
+  </si>
+  <si>
+    <t>Last update</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Auther</t>
   </si>
   <si>
     <t xml:space="preserve">Date </t>
@@ -68,54 +67,54 @@
     <t xml:space="preserve">Change </t>
   </si>
   <si>
-    <t xml:space="preserve">A.Ali</t>
+    <t>A.Ali</t>
   </si>
   <si>
     <t xml:space="preserve">Initial creation </t>
   </si>
   <si>
-    <t xml:space="preserve">Entry Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detection version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page/Line/Section/Entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open point : description of problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The project Is should be added in the first page of SRS , Also you need to update the date in this page to match the final
+    <t>Entry Date</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>Detection version</t>
+  </si>
+  <si>
+    <t>Name of file</t>
+  </si>
+  <si>
+    <t>Page/Line/Section/Entity</t>
+  </si>
+  <si>
+    <t>Open point : description of problem</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>Page 1</t>
+  </si>
+  <si>
+    <t>The project Is should be added in the first page of SRS , Also you need to update the date in this page to match the final
  date wrote in Document History table and the comment illustrate that the document not fulfill all the upstream 
 requirements should be deleted and the document status in this case will be Draft.</t>
   </si>
   <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page 3</t>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Page 3</t>
   </si>
   <si>
     <t xml:space="preserve">Document History table should be written before the table of contents. </t>
@@ -141,7 +140,7 @@
 - CYRS. </t>
   </si>
   <si>
-    <t xml:space="preserve">Page 5</t>
+    <t>Page 5</t>
   </si>
   <si>
     <t xml:space="preserve">In Purpose section, you need to mention that this document will explain the features of the system from 
@@ -151,27 +150,27 @@
     <t xml:space="preserve">Page 6 </t>
   </si>
   <si>
-    <t xml:space="preserve">You need to modify the description mentioned in Intended Use section as this document not only released to
+    <t>You need to modify the description mentioned in Intended Use section as this document not only released to
  Software Architect.</t>
   </si>
   <si>
-    <t xml:space="preserve">Functional Requirements Specification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instead of saying this function shall xxxxx , you could say the SW shall do xxxxxxx as all of those requirements in SRS 
+    <t>Functional Requirements Specification</t>
+  </si>
+  <si>
+    <t>Instead of saying this function shall xxxxx , you could say the SW shall do xxxxxxx as all of those requirements in SRS 
 describe how the sw shall handle the system functionalities.</t>
   </si>
   <si>
-    <t xml:space="preserve">You need to change the requirement ID numbers as it should use only integer numbers for each separate requirement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page 10</t>
+    <t>You need to change the requirement ID numbers as it should use only integer numbers for each separate requirement.</t>
+  </si>
+  <si>
+    <t>Page 10</t>
   </si>
   <si>
     <t xml:space="preserve">Instead of redundancy in mentioning the requirements in Covers &amp; Functional Requirements Table section, you can create like a table for each separate requirement and add all the related fields inside this table. Please, refer to the slides shared with your Team Leader which describe how to make a CYRS &amp; SRS requirements and what’s the required fields for each requirement and try to follow it up. </t>
   </si>
   <si>
-    <t xml:space="preserve">Accepted</t>
+    <t>Accepted</t>
   </si>
   <si>
     <t xml:space="preserve">You need to review your SRS requirements as some of the requirements not describe well how the sw shall handle the 
@@ -179,10 +178,10 @@
 Requirements as it illustrated and mentioned inside the example in slides. </t>
   </si>
   <si>
-    <t xml:space="preserve">Refused</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolved</t>
+    <t>Refused</t>
+  </si>
+  <si>
+    <t>Resolved</t>
   </si>
   <si>
     <t xml:space="preserve">Decision </t>
@@ -201,15 +200,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]MM/DD/YY"/>
-    <numFmt numFmtId="168" formatCode="[$-409]M/D/YYYY"/>
-    <numFmt numFmtId="169" formatCode="@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mm/dd/yy"/>
+    <numFmt numFmtId="167" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -218,22 +215,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -241,7 +223,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -257,6 +239,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -290,103 +279,149 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FF70AD47"/>
       </left>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FF70AD47"/>
       </top>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color rgb="FF70AD47"/>
       </right>
       <top style="medium">
         <color rgb="FF70AD47"/>
       </top>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color rgb="FF70AD47"/>
       </right>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FF70AD47"/>
       </left>
       <right style="medium">
         <color rgb="FF70AD47"/>
       </right>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FF70AD47"/>
       </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FF70AD47"/>
       </left>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF70AD47"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF70AD47"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color rgb="FF70AD47"/>
       </right>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF70AD47"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -402,210 +437,158 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="4">
+    <cellStyle name="Excel Built-in Accent3" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 3 2" xfId="20"/>
-    <cellStyle name="Normal 4" xfId="21"/>
-    <cellStyle name="Excel Built-in Accent3" xfId="22"/>
+    <cellStyle name="Normal 3 2" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
     <dxf>
       <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
         <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
       </font>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -664,222 +647,514 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="B3:H18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.27"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4" t="n">
+      <c r="C9" s="12"/>
+      <c r="D9" s="9">
         <v>44014</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="10" t="n">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="14">
         <v>0.1</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="n">
+      <c r="D13" s="4"/>
+      <c r="E13" s="3">
         <v>44014</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="14"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="14"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="14"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="14"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="15"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
@@ -887,57 +1162,45 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="100.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="174.28"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="100.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
+    <col min="12" max="12" width="174.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="34.15" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
@@ -966,8 +1229,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="n">
+    <row r="2" spans="1:11" ht="75">
+      <c r="A2" s="19">
         <v>44014</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -985,14 +1248,16 @@
       <c r="F2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H2" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="n">
+    <row r="3" spans="1:11" ht="30">
+      <c r="A3" s="19">
         <v>44014</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -1007,17 +1272,19 @@
       <c r="E3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H3" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="n">
+    <row r="4" spans="1:11" ht="120">
+      <c r="A4" s="19">
         <v>44014</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -1035,14 +1302,16 @@
       <c r="F4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H4" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="n">
+    <row r="5" spans="1:11" ht="90">
+      <c r="A5" s="19">
         <v>44014</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -1060,14 +1329,16 @@
       <c r="F5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="24"/>
+      <c r="G5" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H5" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="24"/>
     </row>
-    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="n">
+    <row r="6" spans="1:11" ht="30">
+      <c r="A6" s="19">
         <v>44014</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1085,14 +1356,16 @@
       <c r="F6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="n">
+    <row r="7" spans="1:11" ht="30">
+      <c r="A7" s="19">
         <v>44014</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -1110,14 +1383,16 @@
       <c r="F7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="24"/>
+      <c r="G7" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="n">
+    <row r="8" spans="1:11" ht="45">
+      <c r="A8" s="19">
         <v>44014</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -1135,14 +1410,16 @@
       <c r="F8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="n">
+    <row r="9" spans="1:11" ht="30">
+      <c r="A9" s="19">
         <v>44014</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -1160,14 +1437,16 @@
       <c r="F9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="n">
+    <row r="10" spans="1:11" ht="60">
+      <c r="A10" s="19">
         <v>44014</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -1185,17 +1464,19 @@
       <c r="F10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="24"/>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="n">
+    <row r="11" spans="1:11" ht="75">
+      <c r="A11" s="19">
         <v>44014</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1213,16 +1494,18 @@
       <c r="F11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="24" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="24"/>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="21"/>
@@ -1230,12 +1513,10 @@
       <c r="E12" s="22"/>
       <c r="F12" s="26"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="24" t="s">
-        <v>28</v>
-      </c>
+      <c r="H12" s="24"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" customFormat="false" ht="52.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" ht="52.35" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="21"/>
@@ -1245,11 +1526,11 @@
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21"/>
@@ -1259,11 +1540,11 @@
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="22"/>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="21"/>
@@ -1274,7 +1555,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
@@ -1285,7 +1566,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:12">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
@@ -1295,14 +1576,14 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="22"/>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="L17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:12">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
@@ -1312,14 +1593,14 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="22"/>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="L18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:12">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
@@ -1330,7 +1611,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:12">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
@@ -1341,7 +1622,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:12">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
@@ -1352,7 +1633,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:12">
       <c r="A22" s="27"/>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
@@ -1363,7 +1644,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:12">
       <c r="A23" s="27"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -1374,7 +1655,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:12">
       <c r="A24" s="27"/>
       <c r="B24" s="28"/>
       <c r="C24" s="29"/>
@@ -1385,7 +1666,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:12">
       <c r="A25" s="27"/>
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
@@ -1396,7 +1677,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:12">
       <c r="A26" s="27"/>
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
@@ -1407,7 +1688,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="32"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:12">
       <c r="A27" s="27"/>
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
@@ -1418,7 +1699,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="32"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12">
       <c r="A28" s="27"/>
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
@@ -1429,7 +1710,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12">
       <c r="A29" s="27"/>
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
@@ -1440,7 +1721,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:12">
       <c r="A30" s="27"/>
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
@@ -1451,7 +1732,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="32"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12">
       <c r="A31" s="27"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
@@ -1462,7 +1743,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="32"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:12">
       <c r="A32" s="27"/>
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
@@ -1473,7 +1754,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:9">
       <c r="A33" s="27"/>
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
@@ -1484,7 +1765,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="32"/>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:9">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -1495,7 +1776,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:9">
       <c r="A35" s="27"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -1506,7 +1787,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:9">
       <c r="A36" s="27"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -1517,7 +1798,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:9">
       <c r="A37" s="27"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -1528,7 +1809,7 @@
       <c r="H37" s="24"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:9">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -1539,7 +1820,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:9">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -1550,7 +1831,7 @@
       <c r="H39" s="24"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:9">
       <c r="A40" s="27"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -1561,7 +1842,7 @@
       <c r="H40" s="24"/>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:9">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -1572,7 +1853,7 @@
       <c r="H41" s="24"/>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:9">
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -1583,7 +1864,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:9">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -1594,7 +1875,7 @@
       <c r="H43" s="24"/>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:9">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -1605,7 +1886,7 @@
       <c r="H44" s="24"/>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:9">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -1616,7 +1897,7 @@
       <c r="H45" s="24"/>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:9">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -1627,7 +1908,7 @@
       <c r="H46" s="24"/>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:9">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -1638,7 +1919,7 @@
       <c r="H47" s="24"/>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:9">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -1649,7 +1930,7 @@
       <c r="H48" s="24"/>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:9">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -1660,7 +1941,7 @@
       <c r="H49" s="24"/>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:9">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -1671,7 +1952,7 @@
       <c r="H50" s="24"/>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:9">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -1682,7 +1963,7 @@
       <c r="H51" s="24"/>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:9">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -1693,7 +1974,7 @@
       <c r="H52" s="24"/>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:9">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -1706,44 +1987,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>$G$10</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$G$8</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#ref!</formula>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>$G$10</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G1:G1053" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1053">
       <formula1>$K$10:$K$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H1 H29:H1053" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H29:H1053">
       <formula1>$K$14:$K$14</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H28" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H28">
       <formula1>'Cross review points '!$K$13:$K$14</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Software Specifications/SRS/SRS_Review.xlsx
+++ b/Software Specifications/SRS/SRS_Review.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Documents\GitHub\GroupA_Electric_Blender-ITI-Intake40-\Software Specifications\SRS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction " sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_Toc30697436" localSheetId="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -199,14 +204,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]mm/dd/yy"/>
     <numFmt numFmtId="167" formatCode="[$-409]m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -445,42 +450,6 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -543,6 +512,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -588,7 +593,7 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -657,6 +662,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -671,44 +684,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -735,14 +748,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -769,6 +783,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -780,366 +795,366 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="32.28515625" customWidth="1"/>
+    <col min="8" max="8" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="12" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="12" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="12" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="12" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="9">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33">
         <v>44014</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="7" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="13" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="14">
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>0.1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3">
+      <c r="D13" s="26"/>
+      <c r="E13" s="31">
         <v>44014</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="14"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="14"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="14"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="14"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="15"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -1149,30 +1164,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1180,402 +1171,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="100.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
-    <col min="12" max="12" width="174.28515625" customWidth="1"/>
+    <col min="6" max="6" width="100.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="12" max="12" width="174.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34.15" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="75">
-      <c r="A2" s="19">
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>44014</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="24"/>
-    </row>
-    <row r="3" spans="1:11" ht="30">
-      <c r="A3" s="19">
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>44014</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" ht="120">
-      <c r="A4" s="19">
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>44014</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" ht="90">
-      <c r="A5" s="19">
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>44014</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" ht="30">
-      <c r="A6" s="19">
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>44014</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="19">
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>44014</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>44014</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="1:11" ht="45">
-      <c r="A8" s="19">
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>44014</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="F9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:11" ht="30">
-      <c r="A9" s="19">
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>44014</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="24" t="s">
+      <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:11" ht="60">
-      <c r="A10" s="19">
-        <v>44014</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="12"/>
       <c r="K10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="75">
-      <c r="A11" s="19">
+    <row r="11" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>44014</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="12"/>
       <c r="K11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:11" ht="52.35" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="K13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="22"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="10"/>
       <c r="K14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="22"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="10"/>
       <c r="K17" t="s">
         <v>47</v>
       </c>
@@ -1583,16 +1574,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="22"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="10"/>
       <c r="K18" t="s">
         <v>49</v>
       </c>
@@ -1600,390 +1591,390 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="32"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="32"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="32"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="32"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="32"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="27"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="27"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="32"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="32"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="32"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="32"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="32"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="32"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="32"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="32"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="32"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="32"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="32"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="32"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="32"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="32"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="32"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="32"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="32"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="20"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1">
@@ -2015,7 +2006,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H28">
-      <formula1>'Cross review points '!$K$13:$K$14</formula1>
+      <formula1>$K$13:$K$14</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
